--- a/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_-10%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_-10%.xlsx
@@ -77663,6 +77663,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>12.26966666666667</v>
+      </c>
       <c r="C2" t="n">
         <v>437.4411111111111</v>
       </c>
@@ -77718,6 +77721,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.94383333333333</v>
+      </c>
       <c r="C3" t="n">
         <v>442.7516666666667</v>
       </c>
@@ -77773,6 +77779,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.55483333333333</v>
+      </c>
       <c r="C4" t="n">
         <v>453.0244444444444</v>
       </c>
@@ -77828,6 +77837,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.41766666666667</v>
+      </c>
       <c r="C5" t="n">
         <v>417.1477777777777</v>
       </c>
@@ -77883,6 +77895,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.33</v>
+      </c>
       <c r="C6" t="n">
         <v>438.0455555555556</v>
       </c>
@@ -77938,6 +77953,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>14.04683333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>436.2061111111111</v>
       </c>
@@ -77993,6 +78011,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>13.67866666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>454.46</v>
       </c>
@@ -78048,6 +78069,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>14.69733333333333</v>
+      </c>
       <c r="C9" t="n">
         <v>442.3911111111111</v>
       </c>
@@ -78103,6 +78127,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.33016666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>430.1472222222222</v>
       </c>
@@ -78158,6 +78185,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>12.59883333333334</v>
+      </c>
       <c r="C11" t="n">
         <v>459.1166666666667</v>
       </c>
@@ -78213,6 +78243,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.0175</v>
+      </c>
       <c r="C12" t="n">
         <v>443.9444444444445</v>
       </c>
@@ -78268,6 +78301,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.03416666666667</v>
+      </c>
       <c r="C13" t="n">
         <v>446.1777777777778</v>
       </c>
@@ -78323,6 +78359,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.18316666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>437.6144444444445</v>
       </c>
@@ -78378,6 +78417,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>12.67466666666667</v>
+      </c>
       <c r="C15" t="n">
         <v>433.8272222222222</v>
       </c>
@@ -78433,6 +78475,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>14.72333333333333</v>
+      </c>
       <c r="C16" t="n">
         <v>450.2738888888889</v>
       </c>
@@ -78488,6 +78533,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.73833333333334</v>
+      </c>
       <c r="C17" t="n">
         <v>445.4633333333334</v>
       </c>
@@ -78543,6 +78591,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.41316666666667</v>
+      </c>
       <c r="C18" t="n">
         <v>482.15</v>
       </c>
@@ -78598,6 +78649,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.73283333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>424.1822222222222</v>
       </c>
@@ -78653,6 +78707,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.8645</v>
+      </c>
       <c r="C20" t="n">
         <v>441.8283333333334</v>
       </c>
@@ -78708,6 +78765,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.48666666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>435.0033333333334</v>
       </c>
@@ -78763,6 +78823,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.4635</v>
+      </c>
       <c r="C22" t="n">
         <v>455.1238888888888</v>
       </c>
@@ -78818,6 +78881,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>14.0135</v>
+      </c>
       <c r="C23" t="n">
         <v>450.2622222222222</v>
       </c>
@@ -78873,6 +78939,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>12.76766666666667</v>
+      </c>
       <c r="C24" t="n">
         <v>442.6061111111111</v>
       </c>
@@ -78928,6 +78997,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>13.40533333333333</v>
+      </c>
       <c r="C25" t="n">
         <v>446.0072222222223</v>
       </c>
@@ -78983,6 +79055,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>12.5365</v>
+      </c>
       <c r="C26" t="n">
         <v>399.2377777777778</v>
       </c>
@@ -79038,6 +79113,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.94266666666667</v>
+      </c>
       <c r="C27" t="n">
         <v>434.3294444444444</v>
       </c>
@@ -79093,6 +79171,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>11.986</v>
+      </c>
       <c r="C28" t="n">
         <v>411.2788888888889</v>
       </c>
@@ -79148,6 +79229,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>14.87266666666667</v>
+      </c>
       <c r="C29" t="n">
         <v>442.4566666666666</v>
       </c>
@@ -79203,6 +79287,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.44983333333333</v>
+      </c>
       <c r="C30" t="n">
         <v>455.8405555555556</v>
       </c>
@@ -79257,6 +79344,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.22633333333333</v>
       </c>
       <c r="C31" t="n">
         <v>427.2194444444444</v>
